--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Lrpap1-Ldlr.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Lrpap1-Ldlr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.91106464549418</v>
+        <v>6.540008666666668</v>
       </c>
       <c r="H2">
-        <v>5.91106464549418</v>
+        <v>19.620026</v>
       </c>
       <c r="I2">
-        <v>0.2223646641958327</v>
+        <v>0.2365207520404831</v>
       </c>
       <c r="J2">
-        <v>0.2223646641958327</v>
+        <v>0.2365207520404831</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.42112094685021</v>
+        <v>1.425703666666666</v>
       </c>
       <c r="N2">
-        <v>1.42112094685021</v>
+        <v>4.277111</v>
       </c>
       <c r="O2">
-        <v>0.04872285742775753</v>
+        <v>0.04715501820393346</v>
       </c>
       <c r="P2">
-        <v>0.04872285742775753</v>
+        <v>0.04715501820393346</v>
       </c>
       <c r="Q2">
-        <v>8.40033778589749</v>
+        <v>9.324114336098445</v>
       </c>
       <c r="R2">
-        <v>8.40033778589749</v>
+        <v>83.91702902488601</v>
       </c>
       <c r="S2">
-        <v>0.01083424183058474</v>
+        <v>0.01115314036807701</v>
       </c>
       <c r="T2">
-        <v>0.01083424183058474</v>
+        <v>0.01115314036807701</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.91106464549418</v>
+        <v>6.540008666666668</v>
       </c>
       <c r="H3">
-        <v>5.91106464549418</v>
+        <v>19.620026</v>
       </c>
       <c r="I3">
-        <v>0.2223646641958327</v>
+        <v>0.2365207520404831</v>
       </c>
       <c r="J3">
-        <v>0.2223646641958327</v>
+        <v>0.2365207520404831</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.3543666947144</v>
+        <v>20.61433933333333</v>
       </c>
       <c r="N3">
-        <v>20.3543666947144</v>
+        <v>61.843018</v>
       </c>
       <c r="O3">
-        <v>0.6978455343276256</v>
+        <v>0.6818173855147049</v>
       </c>
       <c r="P3">
-        <v>0.6978455343276256</v>
+        <v>0.6818173855147048</v>
       </c>
       <c r="Q3">
-        <v>120.3159773505505</v>
+        <v>134.8179578976076</v>
       </c>
       <c r="R3">
-        <v>120.3159773505505</v>
+        <v>1213.361621078468</v>
       </c>
       <c r="S3">
-        <v>0.1551761879013239</v>
+        <v>0.161263960776214</v>
       </c>
       <c r="T3">
-        <v>0.1551761879013239</v>
+        <v>0.1612639607762139</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.91106464549418</v>
+        <v>6.540008666666668</v>
       </c>
       <c r="H4">
-        <v>5.91106464549418</v>
+        <v>19.620026</v>
       </c>
       <c r="I4">
-        <v>0.2223646641958327</v>
+        <v>0.2365207520404831</v>
       </c>
       <c r="J4">
-        <v>0.2223646641958327</v>
+        <v>0.2365207520404831</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.39195084369537</v>
+        <v>8.194356666666666</v>
       </c>
       <c r="N4">
-        <v>7.39195084369537</v>
+        <v>24.58307</v>
       </c>
       <c r="O4">
-        <v>0.2534316082446169</v>
+        <v>0.2710275962813615</v>
       </c>
       <c r="P4">
-        <v>0.2534316082446169</v>
+        <v>0.2710275962813615</v>
       </c>
       <c r="Q4">
-        <v>43.69429929339858</v>
+        <v>53.59116361775779</v>
       </c>
       <c r="R4">
-        <v>43.69429929339858</v>
+        <v>482.3204725598201</v>
       </c>
       <c r="S4">
-        <v>0.05635423446392408</v>
+        <v>0.06410365089619206</v>
       </c>
       <c r="T4">
-        <v>0.05635423446392408</v>
+        <v>0.06410365089619206</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.5534132248221</v>
+        <v>14.67485766666667</v>
       </c>
       <c r="H5">
-        <v>14.5534132248221</v>
+        <v>44.024573</v>
       </c>
       <c r="I5">
-        <v>0.5474757998303376</v>
+        <v>0.5307192311682535</v>
       </c>
       <c r="J5">
-        <v>0.5474757998303376</v>
+        <v>0.5307192311682536</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.42112094685021</v>
+        <v>1.425703666666666</v>
       </c>
       <c r="N5">
-        <v>1.42112094685021</v>
+        <v>4.277111</v>
       </c>
       <c r="O5">
-        <v>0.04872285742775753</v>
+        <v>0.04715501820393346</v>
       </c>
       <c r="P5">
-        <v>0.04872285742775753</v>
+        <v>0.04715501820393346</v>
       </c>
       <c r="Q5">
-        <v>20.68216038196155</v>
+        <v>20.92199838317811</v>
       </c>
       <c r="R5">
-        <v>20.68216038196155</v>
+        <v>188.297985448603</v>
       </c>
       <c r="S5">
-        <v>0.02667458534028106</v>
+        <v>0.02502607500691656</v>
       </c>
       <c r="T5">
-        <v>0.02667458534028106</v>
+        <v>0.02502607500691657</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.5534132248221</v>
+        <v>14.67485766666667</v>
       </c>
       <c r="H6">
-        <v>14.5534132248221</v>
+        <v>44.024573</v>
       </c>
       <c r="I6">
-        <v>0.5474757998303376</v>
+        <v>0.5307192311682535</v>
       </c>
       <c r="J6">
-        <v>0.5474757998303376</v>
+        <v>0.5307192311682536</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.3543666947144</v>
+        <v>20.61433933333333</v>
       </c>
       <c r="N6">
-        <v>20.3543666947144</v>
+        <v>61.843018</v>
       </c>
       <c r="O6">
-        <v>0.6978455343276256</v>
+        <v>0.6818173855147049</v>
       </c>
       <c r="P6">
-        <v>0.6978455343276256</v>
+        <v>0.6818173855147048</v>
       </c>
       <c r="Q6">
-        <v>296.225509437735</v>
+        <v>302.5124956090349</v>
       </c>
       <c r="R6">
-        <v>296.225509437735</v>
+        <v>2722.612460481314</v>
       </c>
       <c r="S6">
-        <v>0.3820535420640461</v>
+        <v>0.3618535986375129</v>
       </c>
       <c r="T6">
-        <v>0.3820535420640461</v>
+        <v>0.3618535986375129</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.5534132248221</v>
+        <v>14.67485766666667</v>
       </c>
       <c r="H7">
-        <v>14.5534132248221</v>
+        <v>44.024573</v>
       </c>
       <c r="I7">
-        <v>0.5474757998303376</v>
+        <v>0.5307192311682535</v>
       </c>
       <c r="J7">
-        <v>0.5474757998303376</v>
+        <v>0.5307192311682536</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.39195084369537</v>
+        <v>8.194356666666666</v>
       </c>
       <c r="N7">
-        <v>7.39195084369537</v>
+        <v>24.58307</v>
       </c>
       <c r="O7">
-        <v>0.2534316082446169</v>
+        <v>0.2710275962813615</v>
       </c>
       <c r="P7">
-        <v>0.2534316082446169</v>
+        <v>0.2710275962813615</v>
       </c>
       <c r="Q7">
-        <v>107.5781151658711</v>
+        <v>120.2510177532344</v>
       </c>
       <c r="R7">
-        <v>107.5781151658711</v>
+        <v>1082.25915977911</v>
       </c>
       <c r="S7">
-        <v>0.1387476724260104</v>
+        <v>0.143839557523824</v>
       </c>
       <c r="T7">
-        <v>0.1387476724260104</v>
+        <v>0.143839557523824</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.11827378616277</v>
+        <v>6.436020999999999</v>
       </c>
       <c r="H8">
-        <v>6.11827378616277</v>
+        <v>19.308063</v>
       </c>
       <c r="I8">
-        <v>0.2301595359738297</v>
+        <v>0.2327600167912634</v>
       </c>
       <c r="J8">
-        <v>0.2301595359738297</v>
+        <v>0.2327600167912634</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.42112094685021</v>
+        <v>1.425703666666666</v>
       </c>
       <c r="N8">
-        <v>1.42112094685021</v>
+        <v>4.277111</v>
       </c>
       <c r="O8">
-        <v>0.04872285742775753</v>
+        <v>0.04715501820393346</v>
       </c>
       <c r="P8">
-        <v>0.04872285742775753</v>
+        <v>0.04715501820393346</v>
       </c>
       <c r="Q8">
-        <v>8.694807036080455</v>
+        <v>9.175858738443665</v>
       </c>
       <c r="R8">
-        <v>8.694807036080455</v>
+        <v>82.58272864599299</v>
       </c>
       <c r="S8">
-        <v>0.01121403025689173</v>
+        <v>0.01097580282893988</v>
       </c>
       <c r="T8">
-        <v>0.01121403025689173</v>
+        <v>0.01097580282893988</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.11827378616277</v>
+        <v>6.436020999999999</v>
       </c>
       <c r="H9">
-        <v>6.11827378616277</v>
+        <v>19.308063</v>
       </c>
       <c r="I9">
-        <v>0.2301595359738297</v>
+        <v>0.2327600167912634</v>
       </c>
       <c r="J9">
-        <v>0.2301595359738297</v>
+        <v>0.2327600167912634</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.3543666947144</v>
+        <v>20.61433933333333</v>
       </c>
       <c r="N9">
-        <v>20.3543666947144</v>
+        <v>61.843018</v>
       </c>
       <c r="O9">
-        <v>0.6978455343276256</v>
+        <v>0.6818173855147049</v>
       </c>
       <c r="P9">
-        <v>0.6978455343276256</v>
+        <v>0.6818173855147048</v>
       </c>
       <c r="Q9">
-        <v>124.5335881822157</v>
+        <v>132.6743208504593</v>
       </c>
       <c r="R9">
-        <v>124.5335881822157</v>
+        <v>1194.068887654134</v>
       </c>
       <c r="S9">
-        <v>0.1606158043622555</v>
+        <v>0.158699826100978</v>
       </c>
       <c r="T9">
-        <v>0.1606158043622555</v>
+        <v>0.158699826100978</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.11827378616277</v>
+        <v>6.436020999999999</v>
       </c>
       <c r="H10">
-        <v>6.11827378616277</v>
+        <v>19.308063</v>
       </c>
       <c r="I10">
-        <v>0.2301595359738297</v>
+        <v>0.2327600167912634</v>
       </c>
       <c r="J10">
-        <v>0.2301595359738297</v>
+        <v>0.2327600167912634</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.39195084369537</v>
+        <v>8.194356666666666</v>
       </c>
       <c r="N10">
-        <v>7.39195084369537</v>
+        <v>24.58307</v>
       </c>
       <c r="O10">
-        <v>0.2534316082446169</v>
+        <v>0.2710275962813615</v>
       </c>
       <c r="P10">
-        <v>0.2534316082446169</v>
+        <v>0.2710275962813615</v>
       </c>
       <c r="Q10">
-        <v>45.22597907558515</v>
+        <v>52.73905158815666</v>
       </c>
       <c r="R10">
-        <v>45.22597907558515</v>
+        <v>474.6514642934099</v>
       </c>
       <c r="S10">
-        <v>0.05832970135468241</v>
+        <v>0.06308438786134546</v>
       </c>
       <c r="T10">
-        <v>0.05832970135468241</v>
+        <v>0.06308438786134546</v>
       </c>
     </row>
   </sheetData>
